--- a/data/trans_bre/P25_N_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,45</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,41</t>
+          <t>14,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,33</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>191,78%</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>122,03%</t>
+          <t>157,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>253,04%</t>
+          <t>119,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>162,93%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37,53%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 23,8</t>
+          <t>-4,74; 24,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 30,38</t>
+          <t>-4,82; 29,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 35,05</t>
+          <t>-4,99; 27,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1014,28</t>
+          <t>-13,67; 24,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 452,71</t>
+          <t>-65,31; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,75; 1105,4</t>
+          <t>-28,21; 668,15</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-57,6; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-51,05; 390,46</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,81</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,84%</t>
+          <t>23,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>103,16%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>61,47%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>176,5%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 32,46</t>
+          <t>-6,25; 30,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 26,22</t>
+          <t>-8,17; 25,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 20,86</t>
+          <t>-12,66; 21,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 262,11</t>
+          <t>4,75; 41,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 321,59</t>
+          <t>-19,88; 254,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 232,65</t>
+          <t>-32,87; 338,41</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-48,11; 268,75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 827,18</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,43</t>
+          <t>16,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,48</t>
+          <t>19,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,86%</t>
+          <t>16,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>104,99%</t>
+          <t>79,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>118,5%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47,86%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52,41%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 27,11</t>
+          <t>1,94; 30,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 30,31</t>
+          <t>5,71; 32,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 25,96</t>
+          <t>-1,95; 26,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 171,72</t>
+          <t>-0,09; 31,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 245,07</t>
+          <t>4,8; 235,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 153,66</t>
+          <t>20,16; 363,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 170,15</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 151,93</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,03</t>
+          <t>20,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,45</t>
+          <t>11,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,8</t>
+          <t>23,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,26%</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,08%</t>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>74,68%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10,78%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,99; 31,01</t>
+          <t>7,08; 34,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 24,75</t>
+          <t>-2,6; 24,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 34,44</t>
+          <t>10,51; 38,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,58; 106,8</t>
+          <t>-9,69; 19,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 79,49</t>
+          <t>13,62; 114,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,0; 130,78</t>
+          <t>-4,65; 77,53</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27,32; 162,52</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-16,58; 52,13</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>15,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30,81%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32,28%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 24,68</t>
+          <t>-12,01; 25,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 29,37</t>
+          <t>-10,04; 27,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 30,75</t>
+          <t>-3,28; 33,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 58,84</t>
+          <t>-1,59; 33,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 81,51</t>
+          <t>-19,95; 60,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 74,02</t>
+          <t>-18,68; 81,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 81,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 80,44</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,39</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>24,29</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,43</t>
+          <t>12,28</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>40,83%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19,54%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 31,87</t>
+          <t>-10,84; 25,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 28,73</t>
+          <t>5,53; 44,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,97; 40,88</t>
+          <t>-9,69; 33,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,55; 62,01</t>
+          <t>-8,45; 25,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 60,82</t>
+          <t>-13,23; 42,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,8; 84,4</t>
+          <t>7,65; 98,44</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-12,96; 66,79</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-10,44; 40,43</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>12,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,65</t>
+          <t>13,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,45%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>44,06%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46,37%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>41,93%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 21,47</t>
+          <t>4,41; 19,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 22,34</t>
+          <t>6,15; 20,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,61; 26,69</t>
+          <t>6,55; 21,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,71; 74,12</t>
+          <t>7,22; 25,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,74; 85,17</t>
+          <t>11,06; 66,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,93; 99,95</t>
+          <t>18,54; 80,74</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19,1; 84,33</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 81,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_N_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,45</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>157,97%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>119,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>162,93%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>37,53%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>13.10125016663068</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.22383341837792</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.72887478539507</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.717696168779145</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.67428078577872</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9920823920050686</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.773152067300748</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5407190840487952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 24,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 29,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 27,34</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; 24,13</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-65,31; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-28,21; 668,15</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-57,6; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-51,05; 390,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.450293480190108</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.11684050295583</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.803836600096242</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.77780154367459</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7567907613258781</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3705917748189247</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5950594080394406</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.458112735227201</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>32.53181814807775</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>30.88119602335755</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>27.32079604130883</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.8592951920649</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>5.649132918755263</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>4.459818078714397</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,92</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,06</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>23,58</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>60,79%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>61,47%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>24,71%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>176,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,25; 30,4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 25,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,66; 21,02</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 41,74</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-19,88; 254,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-32,87; 338,41</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-48,11; 268,75</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>15,97; 827,18</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>15.31811907920942</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.628686013747457</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.930042221647365</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>24.58694931907318</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.6999865516365074</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5452832179169873</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2224392791905345</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.985636149156714</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>16,8</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,43</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,07</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>79,31%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>118,5%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>47,86%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>52,41%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.744981084472636</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.69313517101609</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-13.17084566419605</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>7.021489584848088</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2425742078107445</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.364120967142583</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4771287084768804</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2317584997412699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 30,17</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,71; 32,04</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 26,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 31,79</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 235,77</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>20,16; 363,49</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; 170,15</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 151,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>34.62453377238518</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>25.12878685071206</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>20.95732470440799</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>43.06471668596679</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.741313348949852</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.984965703330145</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.633331169647983</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>9.223611670181302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +823,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>20,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,06</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>23,97</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,38</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>53,04%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>26,79%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>74,68%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10,78%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>17.42516508232944</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>18.16057071630543</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>12.29361884291259</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>17.07736834622105</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.8192179496714688</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.015759328423961</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4657156619950085</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.5696935118868657</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 34,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 24,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>10,51; 38,89</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; 19,44</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>13,62; 114,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 77,53</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>27,32; 162,52</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-16,58; 52,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.7312563374231753</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.597168856433003</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.199223865258883</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.75839733059212</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.03476702200028521</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.1009813479130061</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.06753243799247352</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.01681260311314266</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>30.67941061695578</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>31.6974339043006</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>26.54582224851129</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>33.41328088121692</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.220161600768533</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.114108538669232</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.702031064216535</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.620138010975246</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,52</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>15,95</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,18</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>18,7%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>30,81%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>32,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,01; 25,73</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,04; 27,71</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 33,06</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 33,78</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-19,95; 60,09</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-18,68; 81,28</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 81,03</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 80,44</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>20.18397753695798</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.58653615568215</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>24.08442143886292</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.858445672724288</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.5401744047823747</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2867719515715519</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.7589413527162286</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.09666218933245559</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>24,29</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,28</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>40,83%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>19,54%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.105337476666184</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.954935069805974</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10.45139058692519</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-10.27769614642025</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.1258071458228046</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.04038800498805806</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.2612840714700099</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1739643913937213</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 25,3</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,53; 44,47</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; 33,31</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 25,63</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; 42,69</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,65; 98,44</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; 66,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 40,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>33.88979077967169</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>25.9990707520861</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>38.88523065500398</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.48056512248785</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.172135934302214</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8303099306991808</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.618271737957905</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5091020989773153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1023,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>12,28</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>13,63</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>14,24</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>15,92</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>35,24%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>44,06%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>46,37%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>41,93%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>8.001709594252915</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>8.92610992401579</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>17.36886904236329</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>16.8057107699226</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.1505656401736702</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.1986390372731315</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.3349099743251787</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.3131080402840242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 19,84</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 20,77</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 21,52</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 25,56</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>11,06; 66,87</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>18,54; 80,74</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>19,1; 84,33</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>16,37; 81,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.91608704174767</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.08869022495814</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-1.889133585633063</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-2.27711529676568</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1957979174803056</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.1835364319481037</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.0359257403757304</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.04170230531384569</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>26.16984765469189</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>28.17278062008626</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>34.66844134829999</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>33.53421126884573</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.6218993658439377</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8437448868058899</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.8472634066891833</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.7492857780103009</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>14.02212615226519</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>25.10371516059561</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>11.16564221745388</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>9.770285064987295</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.2079484944052484</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.4191064004240099</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.1774899607531686</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.1322964132691534</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-5.591513772596773</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>6.456227963262935</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-11.56272989432276</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-8.256759873813731</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.06716242677787071</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.08707115415653492</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.160193783731682</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.09769019629509296</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>34.4253182552247</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>44.63454707079919</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>32.83133927553902</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>27.1643001015963</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.6841177793269027</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.9771855942076554</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.676488255930296</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.4464820288420079</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>13.58478624008933</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>13.78128908123994</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>14.30996511861609</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>16.66416509085542</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.3968187422040201</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.4399510600089472</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.4682049561574954</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.4501131423286141</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>4.974906384132233</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>6.371267366523988</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>6.74288025930868</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>7.985057444435142</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.131770762070814</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.1750546436384919</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.1907124892555547</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.1843057369113595</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>21.05042170269998</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>21.03441789232544</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>21.49548904952743</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>25.79090012020487</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.7101830442249745</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.7946547137261525</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.8423561484750034</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.8226722450790895</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1321,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
